--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/correct_predictions_42.xlsx
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -596,52 +596,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1877,21 +1877,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1916,52 +1916,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2096,42 +2096,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,42 +2156,42 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2471,27 +2471,27 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,21 +2507,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2531,147 +2531,147 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2687,21 +2687,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,21 +2747,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,16 +2777,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2807,51 +2807,51 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,42 +2876,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/correct_predictions_42.xlsx
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -596,52 +596,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1877,21 +1877,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1916,52 +1916,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2096,42 +2096,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,42 +2156,42 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2471,27 +2471,27 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,21 +2507,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2531,147 +2531,147 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2687,21 +2687,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,21 +2747,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,16 +2777,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2807,51 +2807,51 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,42 +2876,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
